--- a/content/Riddles.xlsx
+++ b/content/Riddles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -72,54 +72,18 @@
     <t>Religion</t>
   </si>
   <si>
-    <t>… durch Forschungen in der Geschichte des Landes und Rekonstruierung</t>
-  </si>
-  <si>
     <t>Musik/ Kunst</t>
   </si>
   <si>
-    <t>… durch Bereicherung der Kultur mit Musik und Kunst</t>
-  </si>
-  <si>
-    <t>… durch komplexe mathematische Berechnungen und Formeln</t>
-  </si>
-  <si>
-    <t>… indem ich das politische Geschehen im Land erforsche und partizipiere</t>
-  </si>
-  <si>
     <t>Eine bevorstehende Katastrophe sehe ich voraus, indem ich…</t>
   </si>
   <si>
     <t>Am schnellsten löse ich landesweite Probleme…</t>
   </si>
   <si>
-    <t>… Fehlkonstellationen der Sterne und Anomalien in den physikalischen Gesetzen feststelle.</t>
-  </si>
-  <si>
-    <t>… die Fehlfunktion der Server sowie der Soft- und Hardware erkenne.</t>
-  </si>
-  <si>
-    <t>… die Ratschläge und Prognosen der Literatur aller Epochen in einen logischen Kontext bringe.</t>
-  </si>
-  <si>
-    <t>… besonders die Tektonik und das Wetter untersuche und Unregelmäßigkeiten feststelle.</t>
-  </si>
-  <si>
     <t>Durch… kann einem kranken Menschen am besten geholfen werden.</t>
   </si>
   <si>
-    <t>… Gebete, Segen und Glauben</t>
-  </si>
-  <si>
-    <t>… moderne Arzneimittel und biologische Errungenschaften</t>
-  </si>
-  <si>
-    <t>… chemische Behandlungen, Tränke und unentdeckte Verbindungen</t>
-  </si>
-  <si>
-    <t>… Bewegung, körperliches Training und Kraftaufwand</t>
-  </si>
-  <si>
     <t>Prüfung der Erhabenen - Fragen (Begin)</t>
   </si>
   <si>
@@ -1015,6 +979,42 @@
   </si>
   <si>
     <t>Josef</t>
+  </si>
+  <si>
+    <t>… die Ratschläge und Prognosen der Literatur aller Epochen in einen logischen Kontext bringe. (Literatur)</t>
+  </si>
+  <si>
+    <t>… besonders die Tektonik und das Wetter untersuche und Unregelmäßigkeiten feststelle. (Erdkunde)</t>
+  </si>
+  <si>
+    <t>… durch Bereicherung der Kultur mit Musik und Kunst. (Musik/ Kunst)</t>
+  </si>
+  <si>
+    <t>… durch Forschungen in der Geschichte des Landes und Rekonstruierung. (Geschichte)</t>
+  </si>
+  <si>
+    <t>… indem ich das politische Geschehen im Land erforsche und partizipiere. (Politik)</t>
+  </si>
+  <si>
+    <t>… durch komplexe mathematische Berechnungen und Formeln. (Mathematik)</t>
+  </si>
+  <si>
+    <t>… Fehlkonstellationen der Sterne und Anomalien in den physikalischen Gesetzen feststelle. (Physik)</t>
+  </si>
+  <si>
+    <t>… die Fehlfunktion der Server sowie der Soft- und Hardware erkenne. (Informatik)</t>
+  </si>
+  <si>
+    <t>… Gebete, Segen und Glauben (Religion)</t>
+  </si>
+  <si>
+    <t>… moderne Arzneimittel und biologische Errungenschaften (Biologie)</t>
+  </si>
+  <si>
+    <t>… chemische Behandlungen, Tränke und unentdeckte Verbindungen (Chemie)</t>
+  </si>
+  <si>
+    <t>… Bewegung, körperliches Training und Kraftaufwand (Sport)</t>
   </si>
 </sst>
 </file>
@@ -1366,6 +1366,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,36 +1410,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1724,27 +1724,27 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,27 +1772,27 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>325</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,27 +1820,27 @@
         <v>1</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>327</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -1886,336 +1886,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>99</v>
+      <c r="A3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="26"/>
       <c r="C5" s="20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E5" s="12">
         <v>1914</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="26"/>
       <c r="C6" s="21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E6" s="8">
         <v>1939</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="26"/>
       <c r="C7" s="13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E7" s="8">
         <v>1789</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="26"/>
       <c r="C8" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E8" s="10">
         <v>1871</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>104</v>
+      <c r="C9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2227,19 +2227,19 @@
         <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J11" s="20">
         <v>10</v>
@@ -2248,13 +2248,13 @@
         <v>12</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="M11" s="11">
         <v>1</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2267,19 +2267,19 @@
         <v>2019</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="J12" s="13">
         <v>9</v>
@@ -2288,13 +2288,13 @@
         <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M12" s="8">
         <v>4</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2307,19 +2307,19 @@
         <v>2017</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J13" s="21">
         <v>8</v>
@@ -2328,13 +2328,13 @@
         <v>10</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M13" s="8">
         <v>3</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2347,19 +2347,19 @@
         <v>2020</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="J14" s="14">
         <v>7</v>
@@ -2368,70 +2368,70 @@
         <v>13</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M14" s="16">
         <v>2</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>136</v>
+      <c r="C15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2440,37 +2440,37 @@
         <v>15</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E17" s="12">
         <v>800</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H17" s="20">
         <v>2000</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K17" s="20">
         <v>3</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2480,37 +2480,37 @@
         <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E18" s="8">
         <v>912</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H18" s="21">
         <v>2048</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="K18" s="13">
         <v>4</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2520,37 +2520,37 @@
         <v>25</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E19" s="8">
         <v>753</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H19" s="13">
         <v>2024</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="K19" s="21">
         <v>5</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2560,96 +2560,96 @@
         <v>18</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E20" s="23">
         <v>0</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H20" s="24">
         <v>1984</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K20" s="24">
         <v>2</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N20" s="28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>143</v>
+      <c r="A21" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2661,34 +2661,34 @@
         <v>8</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2701,34 +2701,34 @@
         <v>9</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2741,34 +2741,34 @@
         <v>10</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2781,91 +2781,91 @@
         <v>11</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="L27" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="41" t="s">
+      <c r="C27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>144</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -2874,37 +2874,37 @@
         <v>4.5</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E29" s="11">
         <v>1933</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2914,37 +2914,37 @@
         <v>9</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E30" s="8">
         <v>1930</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2954,37 +2954,37 @@
         <v>3</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E31" s="8">
         <v>1936</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2994,94 +2994,94 @@
         <v>6.5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E32" s="16">
         <v>1934</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="L33" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="M33" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="41" t="s">
-        <v>151</v>
+      <c r="C33" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -3090,37 +3090,37 @@
         <v>28</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3130,37 +3130,37 @@
         <v>38</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3170,37 +3170,37 @@
         <v>32</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3210,66 +3210,66 @@
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3329,6 +3329,89 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3345,89 +3428,6 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/content/Riddles.xlsx
+++ b/content/Riddles.xlsx
@@ -1366,50 +1366,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,120 +1886,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="34" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="37" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2164,58 +2164,58 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="41" t="s">
         <v>222</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2380,58 +2380,58 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2594,62 +2594,62 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="42" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -2814,58 +2814,58 @@
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="41" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
@@ -3030,58 +3030,58 @@
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="I33" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="M33" s="38" t="s">
+      <c r="M33" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="38" t="s">
+      <c r="N33" s="41" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
@@ -3244,32 +3244,32 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>
@@ -3329,89 +3329,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:K40"/>
@@ -3428,6 +3345,89 @@
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
